--- a/data/trans_orig/P78C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF10A2A1-A101-4689-9B78-8CF2AB2BD5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34F7F85B-4571-49DC-A6D5-742F880B8975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7FF6FFC5-93A5-48E7-A487-671CC0B01F82}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AEE339AB-2AD4-4102-A9AA-31F756D8044C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="133">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos del alquiler en 2023 (Tasa respuesta: 1,68%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,22 +80,22 @@
     <t>100%</t>
   </si>
   <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,307 +110,328 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +846,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3555E531-18C9-4F74-B49C-1E3F744B018B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8480B008-E3F2-4CCB-BBCD-9176F5DFED95}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -946,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>2952</v>
+        <v>2442</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -961,7 +982,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>7636</v>
+        <v>5752</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -976,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>10588</v>
+        <v>8194</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1012,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>13152</v>
+        <v>14380</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1027,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>13152</v>
+        <v>14381</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1048,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>2952</v>
+        <v>2442</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1063,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>20788</v>
+        <v>20132</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1078,7 +1099,7 @@
         <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>23740</v>
+        <v>22575</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1101,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>8740</v>
+        <v>7697</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
@@ -1116,7 +1137,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>15730</v>
+        <v>13179</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -1131,7 +1152,7 @@
         <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>24470</v>
+        <v>20876</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>35</v>
@@ -1152,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>3041</v>
+        <v>3096</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>38</v>
@@ -1167,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>40</v>
@@ -1182,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>3200</v>
+        <v>3257</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1203,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>11781</v>
+        <v>10793</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1218,7 +1239,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>15889</v>
+        <v>13341</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1233,7 +1254,7 @@
         <v>24</v>
       </c>
       <c r="N9" s="7">
-        <v>27670</v>
+        <v>24133</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1256,7 +1277,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>15119</v>
+        <v>13660</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1271,7 +1292,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>8957</v>
+        <v>7930</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -1286,16 +1307,16 @@
         <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>24076</v>
+        <v>21590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1307,46 +1328,46 @@
         <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>6904</v>
+        <v>6459</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>4089</v>
+        <v>3821</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
       </c>
       <c r="N11" s="7">
-        <v>10992</v>
+        <v>10280</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1358,7 +1379,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>22023</v>
+        <v>20119</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1373,7 +1394,7 @@
         <v>21</v>
       </c>
       <c r="I12" s="7">
-        <v>13046</v>
+        <v>11751</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1388,7 +1409,7 @@
         <v>46</v>
       </c>
       <c r="N12" s="7">
-        <v>35068</v>
+        <v>31870</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1402,7 +1423,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1411,13 +1432,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>10340</v>
+        <v>9089</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -1426,31 +1447,31 @@
         <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>7031</v>
+        <v>6456</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>17371</v>
+        <v>15545</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,46 +1483,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1018</v>
+        <v>977</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>4939</v>
+        <v>4665</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>5957</v>
+        <v>5643</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,7 +1534,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="7">
-        <v>11358</v>
+        <v>10066</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1528,7 +1549,7 @@
         <v>22</v>
       </c>
       <c r="I15" s="7">
-        <v>11970</v>
+        <v>11121</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1543,7 +1564,7 @@
         <v>33</v>
       </c>
       <c r="N15" s="7">
-        <v>23328</v>
+        <v>21188</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1557,7 +1578,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1566,13 +1587,13 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2126</v>
+        <v>2064</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -1581,31 +1602,31 @@
         <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>4125</v>
+        <v>3814</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>6251</v>
+        <v>5878</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,46 +1638,46 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1489</v>
+        <v>1366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>1967</v>
+        <v>1853</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>2604</v>
+        <v>2551</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1683,7 +1704,7 @@
         <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>5614</v>
+        <v>5180</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1698,7 +1719,7 @@
         <v>18</v>
       </c>
       <c r="N18" s="7">
-        <v>8218</v>
+        <v>7731</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1712,7 +1733,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1721,46 +1742,46 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>886</v>
+        <v>781</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2378</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4856</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>7</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3159</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="7">
-        <v>11</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5743</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,49 +1790,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>991</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>430</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1420</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,10 +1841,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>1877</v>
+        <v>781</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -1835,10 +1856,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I21" s="7">
-        <v>5286</v>
+        <v>2378</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -1850,10 +1871,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N21" s="7">
-        <v>7163</v>
+        <v>3159</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -1867,55 +1888,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>40164</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2013</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2013</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="7">
-        <v>66</v>
-      </c>
-      <c r="I22" s="7">
-        <v>48334</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M22" s="7">
-        <v>106</v>
-      </c>
-      <c r="N22" s="7">
-        <v>88498</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,49 +1945,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>12431</v>
+        <v>941</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>24258</v>
+        <v>405</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>36689</v>
+        <v>1346</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,63 +1996,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>941</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>5</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2418</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6</v>
+      </c>
+      <c r="N24" s="7">
+        <v>3359</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7">
+        <v>35733</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="7">
+        <v>66</v>
+      </c>
+      <c r="I25" s="7">
+        <v>41521</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M25" s="7">
+        <v>106</v>
+      </c>
+      <c r="N25" s="7">
+        <v>77254</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>15</v>
+      </c>
+      <c r="D26" s="7">
+        <v>11960</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="7">
+        <v>26</v>
+      </c>
+      <c r="I26" s="7">
+        <v>24800</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M26" s="7">
+        <v>41</v>
+      </c>
+      <c r="N26" s="7">
+        <v>36760</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>55</v>
       </c>
-      <c r="D24" s="7">
-        <v>52595</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>47693</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>92</v>
       </c>
-      <c r="I24" s="7">
-        <v>72592</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>66321</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>147</v>
       </c>
-      <c r="N24" s="7">
-        <v>125187</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>125</v>
+      <c r="N27" s="7">
+        <v>114014</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
